--- a/artfynd/A 5701-2023.xlsx
+++ b/artfynd/A 5701-2023.xlsx
@@ -1478,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111519523</v>
+        <v>111519524</v>
       </c>
       <c r="B9" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1494,21 +1494,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>633714.5983269843</v>
+        <v>633583.7615760232</v>
       </c>
       <c r="R9" t="n">
-        <v>7117626.805168894</v>
+        <v>7117850.915647855</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111519524</v>
+        <v>111519523</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,21 +1610,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>633583.7615760232</v>
+        <v>633714.5983269843</v>
       </c>
       <c r="R10" t="n">
-        <v>7117850.915647855</v>
+        <v>7117626.805168894</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>

--- a/artfynd/A 5701-2023.xlsx
+++ b/artfynd/A 5701-2023.xlsx
@@ -1594,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111519523</v>
+        <v>111519525</v>
       </c>
       <c r="B10" t="n">
-        <v>89686</v>
+        <v>81248</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,21 +1610,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>658</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>633714.5983269843</v>
+        <v>633449.4009562896</v>
       </c>
       <c r="R10" t="n">
-        <v>7117626.805168894</v>
+        <v>7117893.599162375</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111519525</v>
+        <v>111519523</v>
       </c>
       <c r="B11" t="n">
-        <v>81248</v>
+        <v>89686</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1726,21 +1726,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1312</v>
+        <v>658</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>633449.4009562896</v>
+        <v>633714.5983269843</v>
       </c>
       <c r="R11" t="n">
-        <v>7117893.599162375</v>
+        <v>7117626.805168894</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 5701-2023.xlsx
+++ b/artfynd/A 5701-2023.xlsx
@@ -1478,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111519524</v>
+        <v>111519525</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1494,21 +1494,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>633583.7615760232</v>
+        <v>633449.4009562896</v>
       </c>
       <c r="R9" t="n">
-        <v>7117850.915647855</v>
+        <v>7117893.599162375</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111519525</v>
+        <v>111519523</v>
       </c>
       <c r="B10" t="n">
-        <v>81248</v>
+        <v>89686</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,21 +1610,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>633449.4009562896</v>
+        <v>633714.5983269843</v>
       </c>
       <c r="R10" t="n">
-        <v>7117893.599162375</v>
+        <v>7117626.805168894</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111519523</v>
+        <v>111519524</v>
       </c>
       <c r="B11" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1726,21 +1726,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>633714.5983269843</v>
+        <v>633583.7615760232</v>
       </c>
       <c r="R11" t="n">
-        <v>7117626.805168894</v>
+        <v>7117850.915647855</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 5701-2023.xlsx
+++ b/artfynd/A 5701-2023.xlsx
@@ -1594,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111519523</v>
+        <v>111519524</v>
       </c>
       <c r="B10" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,21 +1610,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>633714.5983269843</v>
+        <v>633583.7615760232</v>
       </c>
       <c r="R10" t="n">
-        <v>7117626.805168894</v>
+        <v>7117850.915647855</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111519524</v>
+        <v>111519523</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1726,21 +1726,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>633583.7615760232</v>
+        <v>633714.5983269843</v>
       </c>
       <c r="R11" t="n">
-        <v>7117850.915647855</v>
+        <v>7117626.805168894</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
